--- a/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商直接投资/中国实际利用北美洲各国(地区)外商直接投资金额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分实际外商投资额/实际利用外商直接投资/中国实际利用北美洲各国(地区)外商直接投资金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,453 +463,275 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27978</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>63485</v>
+      </c>
+      <c r="C2" t="n">
+        <v>190</v>
+      </c>
       <c r="D2" t="n">
-        <v>478579</v>
+        <v>401372</v>
       </c>
       <c r="E2" t="n">
-        <v>12212</v>
+        <v>35963</v>
       </c>
       <c r="F2" t="n">
-        <v>438389</v>
+        <v>301734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44130</v>
+        <v>46832</v>
       </c>
       <c r="C3" t="n">
-        <v>1513</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>509685</v>
+        <v>358156</v>
       </c>
       <c r="E3" t="n">
-        <v>20720</v>
+        <v>74362</v>
       </c>
       <c r="F3" t="n">
-        <v>443322</v>
+        <v>236932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58798</v>
+        <v>43497</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>142689</v>
+        <v>382585</v>
       </c>
       <c r="E4" t="n">
-        <v>47842</v>
+        <v>79160</v>
       </c>
       <c r="F4" t="n">
-        <v>542392</v>
+        <v>259809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56351</v>
+        <v>53610</v>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>581</v>
       </c>
       <c r="D5" t="n">
-        <v>516135</v>
+        <v>408372</v>
       </c>
       <c r="E5" t="n">
-        <v>39820</v>
+        <v>72194</v>
       </c>
       <c r="F5" t="n">
-        <v>419851</v>
+        <v>281987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61387</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>35346</v>
+      </c>
+      <c r="C6" t="n">
+        <v>119</v>
+      </c>
       <c r="D6" t="n">
-        <v>497759</v>
+        <v>325619</v>
       </c>
       <c r="E6" t="n">
-        <v>42277</v>
+        <v>53080</v>
       </c>
       <c r="F6" t="n">
-        <v>394095</v>
+        <v>237074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45413</v>
+        <v>22392</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>1973</v>
       </c>
       <c r="D7" t="n">
-        <v>372996</v>
+        <v>304272</v>
       </c>
       <c r="E7" t="n">
-        <v>21400</v>
+        <v>71018</v>
       </c>
       <c r="F7" t="n">
-        <v>306123</v>
+        <v>208889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42416</v>
-      </c>
-      <c r="C8" t="n">
-        <v>293</v>
-      </c>
+        <v>26240</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>368699</v>
+        <v>310421</v>
       </c>
       <c r="E8" t="n">
-        <v>39481</v>
+        <v>45580</v>
       </c>
       <c r="F8" t="n">
-        <v>286509</v>
+        <v>238601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39658</v>
+        <v>29269</v>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="D9" t="n">
-        <v>339027</v>
+        <v>428552</v>
       </c>
       <c r="E9" t="n">
-        <v>37684</v>
+        <v>134213</v>
       </c>
       <c r="F9" t="n">
-        <v>261623</v>
+        <v>264905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54328</v>
+        <v>28461</v>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>670</v>
       </c>
       <c r="D10" t="n">
-        <v>395780</v>
+        <v>514789</v>
       </c>
       <c r="E10" t="n">
-        <v>46898</v>
+        <v>216727</v>
       </c>
       <c r="F10" t="n">
-        <v>294434</v>
+        <v>268931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86177</v>
+        <v>23195</v>
       </c>
       <c r="C11" t="n">
-        <v>225</v>
+        <v>566</v>
       </c>
       <c r="D11" t="n">
-        <v>367672</v>
+        <v>340785</v>
       </c>
       <c r="E11" t="n">
-        <v>25771</v>
+        <v>48386</v>
       </c>
       <c r="F11" t="n">
-        <v>255499</v>
+        <v>268638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63485</v>
+        <v>21686</v>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>401372</v>
+        <v>267838</v>
       </c>
       <c r="E12" t="n">
-        <v>35963</v>
+        <v>15669</v>
       </c>
       <c r="F12" t="n">
-        <v>301734</v>
+        <v>230451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46832</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
+        <v>20269</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>358156</v>
+        <v>279199</v>
       </c>
       <c r="E13" t="n">
-        <v>74362</v>
+        <v>12184</v>
       </c>
       <c r="F13" t="n">
-        <v>236932</v>
+        <v>246746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43497</v>
+        <v>16571</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>382585</v>
-      </c>
-      <c r="E14" t="n">
-        <v>79160</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>259809</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>53610</v>
-      </c>
-      <c r="C15" t="n">
-        <v>581</v>
-      </c>
-      <c r="D15" t="n">
-        <v>408372</v>
-      </c>
-      <c r="E15" t="n">
-        <v>72194</v>
-      </c>
-      <c r="F15" t="n">
-        <v>281987</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>35346</v>
-      </c>
-      <c r="C16" t="n">
-        <v>119</v>
-      </c>
-      <c r="D16" t="n">
-        <v>325619</v>
-      </c>
-      <c r="E16" t="n">
-        <v>53080</v>
-      </c>
-      <c r="F16" t="n">
-        <v>237074</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22392</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1973</v>
-      </c>
-      <c r="D17" t="n">
-        <v>304272</v>
-      </c>
-      <c r="E17" t="n">
-        <v>71018</v>
-      </c>
-      <c r="F17" t="n">
-        <v>208889</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>26240</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>310421</v>
-      </c>
-      <c r="E18" t="n">
-        <v>45580</v>
-      </c>
-      <c r="F18" t="n">
-        <v>238601</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>29269</v>
-      </c>
-      <c r="C19" t="n">
-        <v>165</v>
-      </c>
-      <c r="D19" t="n">
-        <v>428552</v>
-      </c>
-      <c r="E19" t="n">
-        <v>134213</v>
-      </c>
-      <c r="F19" t="n">
-        <v>264905</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>28461</v>
-      </c>
-      <c r="C20" t="n">
-        <v>670</v>
-      </c>
-      <c r="D20" t="n">
-        <v>514789</v>
-      </c>
-      <c r="E20" t="n">
-        <v>216727</v>
-      </c>
-      <c r="F20" t="n">
-        <v>268931</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>23195</v>
-      </c>
-      <c r="C21" t="n">
-        <v>566</v>
-      </c>
-      <c r="D21" t="n">
-        <v>340785</v>
-      </c>
-      <c r="E21" t="n">
-        <v>48386</v>
-      </c>
-      <c r="F21" t="n">
-        <v>268638</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21686</v>
-      </c>
-      <c r="C22" t="n">
-        <v>32</v>
-      </c>
-      <c r="D22" t="n">
-        <v>267838</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15669</v>
-      </c>
-      <c r="F22" t="n">
-        <v>230451</v>
+        <v>221457</v>
       </c>
     </row>
   </sheetData>
